--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,20 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="254" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="412" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Results 1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Results 2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Results 3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Per Child" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="34">
   <si>
     <t>Process
 Type</t>
@@ -38,19 +40,8 @@
 [CPU-sec]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">system
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <b val="true"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">[CPU-sec]</t>
-    </r>
+    <t>system
+[CPU-sec]</t>
   </si>
   <si>
     <t>CPU
@@ -128,6 +119,21 @@
     <t>blocked
 [times]</t>
   </si>
+  <si>
+    <t>10 Children</t>
+  </si>
+  <si>
+    <t>50 Children</t>
+  </si>
+  <si>
+    <t>500 Children</t>
+  </si>
+  <si>
+    <t>wall [sec]</t>
+  </si>
+  <si>
+    <t>User [CPU-sec]</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +146,7 @@
     <numFmt formatCode="0.000" numFmtId="167"/>
     <numFmt formatCode="0.00000" numFmtId="168"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -173,7 +179,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <b val="true"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="5">
@@ -202,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -254,13 +271,6 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
       <right/>
       <top/>
       <bottom style="hair"/>
@@ -270,6 +280,20 @@
       <left/>
       <right style="hair"/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -299,7 +323,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -313,9 +337,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="166" xfId="0"/>
@@ -323,34 +345,34 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="3" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="168" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="168" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="168" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="2" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="2" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="168" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -360,9 +382,32 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -388,7 +433,7 @@
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
       <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00B3B3B3"/>
       <rgbColor rgb="00808080"/>
       <rgbColor rgb="009999FF"/>
       <rgbColor rgb="00993366"/>
@@ -417,12 +462,12 @@
       <rgbColor rgb="003366FF"/>
       <rgbColor rgb="0033CCCC"/>
       <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FFD320"/>
       <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00FF420E"/>
       <rgbColor rgb="00666699"/>
       <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00004586"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
       <rgbColor rgb="00333300"/>
@@ -435,38 +480,1993 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>CPU Bound Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.28366666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.26786666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79973333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77146666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.77694666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85789333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="77489187"/>
+        <c:axId val="29652496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77489187"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Scheduling Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="29652496"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29652496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77489187"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>I/O Bound Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$6:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.549666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.564333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$6:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.354466666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.197866666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$6:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108486666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="51207470"/>
+        <c:axId val="2467354"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51207470"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Scheduling Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2467354"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2467354"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51207470"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Mixed Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.24166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.27933333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.955133333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11593333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14246666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.833193333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.928553333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.929593333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="80445795"/>
+        <c:axId val="27407154"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80445795"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Scheduling Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="27407154"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27407154"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80445795"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>CPU Bound Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$23:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.28366666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26786666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77694666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$23:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79973333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.85789333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$23:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$17:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77146666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="59766667"/>
+        <c:axId val="92508297"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59766667"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92508297"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92508297"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59766667"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>I/O Bound Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.354466666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$23:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.549666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108486666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$23:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.564333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.197866666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="61379297"/>
+        <c:axId val="67327468"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="61379297"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67327468"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67327468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61379297"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Mixed Benchmark Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$C$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_OTHER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.24166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.955133333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.833193333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$D$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_FIFO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$D$29:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11593333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.928553333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Child'!$E$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHED_RR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Child'!$B$17:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 Children</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Children</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500 Children</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Child'!$E$29:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.27933333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14246666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.929593333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="42669180"/>
+        <c:axId val="58981467"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42669180"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58981467"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58981467"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Average wall time per child process [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42669180"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177120</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="27000" y="5990040"/>
+        <a:ext cx="5971680" cy="3758400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177120</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="27000" y="10047960"/>
+        <a:ext cx="5971680" cy="3758400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177120</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="27000" y="13935240"/>
+        <a:ext cx="5971680" cy="3758760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567360</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6554880" y="6064560"/>
+        <a:ext cx="5974560" cy="3708360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747360</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577080</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6568920" y="9944640"/>
+        <a:ext cx="5970240" cy="3708720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>747360</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577080</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6568920" y="13971600"/>
+        <a:ext cx="5970240" cy="3708720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R22" activeCellId="0" pane="topLeft" sqref="R22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="K15" activeCellId="0" pane="topLeft" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.121568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.98039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.95686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7882352941176"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.41960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.1764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.95686274509804"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2392156862745"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6823529411765"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.4941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3450980392157"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.8470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1" s="2">
@@ -515,17 +2515,12 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C2,'Results 2'!C2,'Results 3'!C2)</f>
         <v>10</v>
@@ -581,32 +2576,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="13" t="n">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C3,'Results 2'!C3,'Results 3'!C3)</f>
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D3,'Results 2'!D3,'Results 3'!D3)</f>
         <v>63.3933333333333</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E3,'Results 2'!E3,'Results 3'!E3)</f>
         <v>252.196666666667</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F3,'Results 2'!F3,'Results 3'!F3)</f>
         <v>0.1</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G3,'Results 2'!G3,'Results 3'!G3)</f>
         <v>397.666666666667</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H3,'Results 2'!H3,'Results 3'!H3)</f>
         <v>65375.6666666667</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I3,'Results 2'!I3,'Results 3'!I3)</f>
         <v>103.666666666667</v>
       </c>
@@ -614,55 +2611,55 @@
         <f aca="false">D3-(E3+F3)/4</f>
         <v>0.319166666666682</v>
       </c>
-      <c r="M3" s="17" t="n">
+      <c r="M3" s="18" t="n">
         <f aca="false">D3/C3</f>
         <v>1.26786666666667</v>
       </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="18" t="n">
         <f aca="false">E3/C3</f>
         <v>5.04393333333333</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="O3" s="19" t="n">
         <f aca="false">F3/C3</f>
         <v>0.002</v>
       </c>
-      <c r="P3" s="15" t="n">
+      <c r="P3" s="16" t="n">
         <f aca="false">H3/C3</f>
         <v>1307.51333333333</v>
       </c>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="16" t="n">
         <f aca="false">I3/C3</f>
         <v>2.07333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="19" t="n">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="n">
         <f aca="false">AVERAGE('Results 1'!C4,'Results 2'!C4,'Results 3'!C4)</f>
         <v>500</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!D4,'Results 2'!D4,'Results 3'!D4)</f>
         <v>888.473333333333</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!E4,'Results 2'!E4,'Results 3'!E4)</f>
         <v>3532.60666666667</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!F4,'Results 2'!F4,'Results 3'!F4)</f>
         <v>1.14666666666667</v>
       </c>
-      <c r="G4" s="21" t="n">
+      <c r="G4" s="23" t="n">
         <f aca="false">AVERAGE('Results 1'!G4,'Results 2'!G4,'Results 3'!G4)</f>
         <v>397.333333333333</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="23" t="n">
         <f aca="false">AVERAGE('Results 1'!H4,'Results 2'!H4,'Results 3'!H4)</f>
         <v>911978.666666667</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="24" t="n">
         <f aca="false">AVERAGE('Results 1'!I4,'Results 2'!I4,'Results 3'!I4)</f>
         <v>1013.66666666667</v>
       </c>
@@ -670,32 +2667,30 @@
         <f aca="false">D4-(E4+F4)/4</f>
         <v>5.03500000000008</v>
       </c>
-      <c r="M4" s="23" t="n">
+      <c r="M4" s="25" t="n">
         <f aca="false">D4/C4</f>
         <v>1.77694666666667</v>
       </c>
-      <c r="N4" s="23" t="n">
+      <c r="N4" s="25" t="n">
         <f aca="false">E4/C4</f>
         <v>7.06521333333333</v>
       </c>
-      <c r="O4" s="24" t="n">
+      <c r="O4" s="26" t="n">
         <f aca="false">F4/C4</f>
         <v>0.00229333333333333</v>
       </c>
-      <c r="P4" s="21" t="n">
+      <c r="P4" s="23" t="n">
         <f aca="false">H4/C4</f>
         <v>1823.95733333333</v>
       </c>
-      <c r="Q4" s="21" t="n">
+      <c r="Q4" s="23" t="n">
         <f aca="false">I4/C4</f>
         <v>2.02733333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="4"/>
-      <c r="B5" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C5,'Results 2'!C5,'Results 3'!C5)</f>
         <v>10</v>
@@ -751,32 +2746,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="13" t="n">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C6,'Results 2'!C6,'Results 3'!C6)</f>
         <v>50</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D6,'Results 2'!D6,'Results 3'!D6)</f>
         <v>89.9866666666667</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E6,'Results 2'!E6,'Results 3'!E6)</f>
         <v>326.813333333333</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F6,'Results 2'!F6,'Results 3'!F6)</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G6,'Results 2'!G6,'Results 3'!G6)</f>
         <v>363</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H6,'Results 2'!H6,'Results 3'!H6)</f>
         <v>326</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I6,'Results 2'!I6,'Results 3'!I6)</f>
         <v>55</v>
       </c>
@@ -784,55 +2781,55 @@
         <f aca="false">D6-(E6+F6)/4</f>
         <v>8.26250000000002</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="18" t="n">
         <f aca="false">D6/C6</f>
         <v>1.79973333333333</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="18" t="n">
         <f aca="false">E6/C6</f>
         <v>6.53626666666667</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="19" t="n">
         <f aca="false">F6/C6</f>
         <v>0.00166666666666667</v>
       </c>
-      <c r="P6" s="15" t="n">
+      <c r="P6" s="16" t="n">
         <f aca="false">H6/C6</f>
         <v>6.52</v>
       </c>
-      <c r="Q6" s="15" t="n">
+      <c r="Q6" s="16" t="n">
         <f aca="false">I6/C6</f>
         <v>1.1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="4"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="n">
+      <c r="B7" s="20"/>
+      <c r="C7" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C7,'Results 2'!C7,'Results 3'!C7)</f>
         <v>500</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D7,'Results 2'!D7,'Results 3'!D7)</f>
         <v>928.946666666667</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E7,'Results 2'!E7,'Results 3'!E7)</f>
         <v>3523.69666666667</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F7,'Results 2'!F7,'Results 3'!F7)</f>
         <v>0.976666666666667</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G7,'Results 2'!G7,'Results 3'!G7)</f>
         <v>379</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H7,'Results 2'!H7,'Results 3'!H7)</f>
         <v>3685.33333333333</v>
       </c>
-      <c r="I7" s="29" t="n">
+      <c r="I7" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I7,'Results 2'!I7,'Results 3'!I7)</f>
         <v>505.333333333333</v>
       </c>
@@ -840,32 +2837,30 @@
         <f aca="false">D7-(E7+F7)/4</f>
         <v>47.7783333333334</v>
       </c>
-      <c r="M7" s="30" t="n">
+      <c r="M7" s="31" t="n">
         <f aca="false">D7/C7</f>
         <v>1.85789333333333</v>
       </c>
-      <c r="N7" s="30" t="n">
+      <c r="N7" s="31" t="n">
         <f aca="false">E7/C7</f>
         <v>7.04739333333333</v>
       </c>
-      <c r="O7" s="31" t="n">
+      <c r="O7" s="32" t="n">
         <f aca="false">F7/C7</f>
         <v>0.00195333333333333</v>
       </c>
-      <c r="P7" s="28" t="n">
+      <c r="P7" s="29" t="n">
         <f aca="false">H7/C7</f>
         <v>7.37066666666667</v>
       </c>
-      <c r="Q7" s="28" t="n">
+      <c r="Q7" s="29" t="n">
         <f aca="false">I7/C7</f>
         <v>1.01066666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="4"/>
-      <c r="B8" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="33" t="n">
         <f aca="false">AVERAGE('Results 1'!C8,'Results 2'!C8,'Results 3'!C8)</f>
         <v>10</v>
@@ -921,32 +2916,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="4"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C9,'Results 2'!C9,'Results 3'!C9)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D9,'Results 2'!D9,'Results 3'!D9)</f>
         <v>88.5733333333333</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E9,'Results 2'!E9,'Results 3'!E9)</f>
         <v>329.68</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F9,'Results 2'!F9,'Results 3'!F9)</f>
         <v>0.07</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G9,'Results 2'!G9,'Results 3'!G9)</f>
         <v>371.333333333333</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H9,'Results 2'!H9,'Results 3'!H9)</f>
         <v>1240</v>
       </c>
-      <c r="I9" s="16" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I9,'Results 2'!I9,'Results 3'!I9)</f>
         <v>75.6666666666667</v>
       </c>
@@ -954,55 +2951,55 @@
         <f aca="false">D9-(E9+F9)/4</f>
         <v>6.13583333333334</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="18" t="n">
         <f aca="false">D9/C9</f>
         <v>1.77146666666667</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="18" t="n">
         <f aca="false">E9/C9</f>
         <v>6.5936</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="19" t="n">
         <f aca="false">F9/C9</f>
         <v>0.0014</v>
       </c>
-      <c r="P9" s="15" t="n">
+      <c r="P9" s="16" t="n">
         <f aca="false">H9/C9</f>
         <v>24.8</v>
       </c>
-      <c r="Q9" s="15" t="n">
+      <c r="Q9" s="16" t="n">
         <f aca="false">I9/C9</f>
         <v>1.51333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="4"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="26" t="n">
+      <c r="B10" s="20"/>
+      <c r="C10" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C10,'Results 2'!C10,'Results 3'!C10)</f>
         <v>500</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D10,'Results 2'!D10,'Results 3'!D10)</f>
         <v>934.63</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E10,'Results 2'!E10,'Results 3'!E10)</f>
         <v>3552.96666666667</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F10" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F10,'Results 2'!F10,'Results 3'!F10)</f>
         <v>0.763333333333333</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G10,'Results 2'!G10,'Results 3'!G10)</f>
         <v>379.666666666667</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H10,'Results 2'!H10,'Results 3'!H10)</f>
         <v>13501.3333333333</v>
       </c>
-      <c r="I10" s="29" t="n">
+      <c r="I10" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I10,'Results 2'!I10,'Results 3'!I10)</f>
         <v>790.666666666667</v>
       </c>
@@ -1010,23 +3007,23 @@
         <f aca="false">D10-(E10+F10)/4</f>
         <v>46.1975000000001</v>
       </c>
-      <c r="M10" s="30" t="n">
+      <c r="M10" s="31" t="n">
         <f aca="false">D10/C10</f>
         <v>1.86926</v>
       </c>
-      <c r="N10" s="30" t="n">
+      <c r="N10" s="31" t="n">
         <f aca="false">E10/C10</f>
         <v>7.10593333333333</v>
       </c>
-      <c r="O10" s="31" t="n">
+      <c r="O10" s="32" t="n">
         <f aca="false">F10/C10</f>
         <v>0.00152666666666667</v>
       </c>
-      <c r="P10" s="28" t="n">
+      <c r="P10" s="29" t="n">
         <f aca="false">H10/C10</f>
         <v>27.0026666666667</v>
       </c>
-      <c r="Q10" s="28" t="n">
+      <c r="Q10" s="29" t="n">
         <f aca="false">I10/C10</f>
         <v>1.58133333333333</v>
       </c>
@@ -1035,9 +3032,7 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C11,'Results 2'!C11,'Results 3'!C11)</f>
         <v>10</v>
@@ -1093,32 +3088,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="13" t="n">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C12,'Results 2'!C12,'Results 3'!C12)</f>
         <v>50</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D12,'Results 2'!D12,'Results 3'!D12)</f>
         <v>17.7233333333333</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E12,'Results 2'!E12,'Results 3'!E12)</f>
         <v>0.02</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F12,'Results 2'!F12,'Results 3'!F12)</f>
         <v>0.0566666666666667</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G12,'Results 2'!G12,'Results 3'!G12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H12,'Results 2'!H12,'Results 3'!H12)</f>
         <v>114</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I12,'Results 2'!I12,'Results 3'!I12)</f>
         <v>16957</v>
       </c>
@@ -1126,55 +3123,55 @@
         <f aca="false">D12-(E12+F12)/4</f>
         <v>17.7041666666667</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="18" t="n">
         <f aca="false">D12/C12</f>
         <v>0.354466666666667</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="18" t="n">
         <f aca="false">E12/C12</f>
         <v>0.0004</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="19" t="n">
         <f aca="false">F12/C12</f>
         <v>0.00113333333333333</v>
       </c>
-      <c r="P12" s="15" t="n">
+      <c r="P12" s="16" t="n">
         <f aca="false">H12/C12</f>
         <v>2.28</v>
       </c>
-      <c r="Q12" s="15" t="n">
+      <c r="Q12" s="16" t="n">
         <f aca="false">I12/C12</f>
         <v>339.14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="4"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="n">
+      <c r="B13" s="20"/>
+      <c r="C13" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C13,'Results 2'!C13,'Results 3'!C13)</f>
         <v>500</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D13,'Results 2'!D13,'Results 3'!D13)</f>
         <v>61.6</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E13,'Results 2'!E13,'Results 3'!E13)</f>
         <v>0.0433333333333333</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F13,'Results 2'!F13,'Results 3'!F13)</f>
         <v>0.07</v>
       </c>
-      <c r="G13" s="28" t="n">
+      <c r="G13" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G13,'Results 2'!G13,'Results 3'!G13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="28" t="n">
+      <c r="H13" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H13,'Results 2'!H13,'Results 3'!H13)</f>
         <v>544.333333333333</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I13,'Results 2'!I13,'Results 3'!I13)</f>
         <v>163473.666666667</v>
       </c>
@@ -1182,32 +3179,30 @@
         <f aca="false">D13-(E13+F13)/4</f>
         <v>61.5716666666667</v>
       </c>
-      <c r="M13" s="30" t="n">
+      <c r="M13" s="31" t="n">
         <f aca="false">D13/C13</f>
         <v>0.1232</v>
       </c>
-      <c r="N13" s="30" t="n">
+      <c r="N13" s="31" t="n">
         <f aca="false">E13/C13</f>
         <v>8.66666666666667E-005</v>
       </c>
-      <c r="O13" s="31" t="n">
+      <c r="O13" s="32" t="n">
         <f aca="false">F13/C13</f>
         <v>0.00014</v>
       </c>
-      <c r="P13" s="28" t="n">
+      <c r="P13" s="29" t="n">
         <f aca="false">H13/C13</f>
         <v>1.08866666666667</v>
       </c>
-      <c r="Q13" s="28" t="n">
+      <c r="Q13" s="29" t="n">
         <f aca="false">I13/C13</f>
         <v>326.947333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="4"/>
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C14,'Results 2'!C14,'Results 3'!C14)</f>
         <v>10</v>
@@ -1263,32 +3258,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="13" t="n">
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C15,'Results 2'!C15,'Results 3'!C15)</f>
         <v>50</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D15,'Results 2'!D15,'Results 3'!D15)</f>
         <v>12.01</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E15,'Results 2'!E15,'Results 3'!E15)</f>
         <v>0.02</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F15,'Results 2'!F15,'Results 3'!F15)</f>
         <v>0.0233333333333333</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G15,'Results 2'!G15,'Results 3'!G15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H15,'Results 2'!H15,'Results 3'!H15)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I15" s="16" t="n">
+      <c r="I15" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I15,'Results 2'!I15,'Results 3'!I15)</f>
         <v>12494.3333333333</v>
       </c>
@@ -1296,55 +3293,55 @@
         <f aca="false">D15-(E15+F15)/4</f>
         <v>11.9991666666667</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="18" t="n">
         <f aca="false">D15/C15</f>
         <v>0.2402</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="18" t="n">
         <f aca="false">E15/C15</f>
         <v>0.0004</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="O15" s="19" t="n">
         <f aca="false">F15/C15</f>
         <v>0.000466666666666667</v>
       </c>
-      <c r="P15" s="15" t="n">
+      <c r="P15" s="16" t="n">
         <f aca="false">H15/C15</f>
         <v>0.0266666666666667</v>
       </c>
-      <c r="Q15" s="15" t="n">
+      <c r="Q15" s="16" t="n">
         <f aca="false">I15/C15</f>
         <v>249.886666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="4"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="n">
+      <c r="B16" s="20"/>
+      <c r="C16" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C16,'Results 2'!C16,'Results 3'!C16)</f>
         <v>500</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D16,'Results 2'!D16,'Results 3'!D16)</f>
         <v>54.2433333333333</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E16,'Results 2'!E16,'Results 3'!E16)</f>
         <v>0.0166666666666667</v>
       </c>
-      <c r="F16" s="27" t="n">
+      <c r="F16" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F16,'Results 2'!F16,'Results 3'!F16)</f>
         <v>0.0633333333333333</v>
       </c>
-      <c r="G16" s="28" t="n">
+      <c r="G16" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G16,'Results 2'!G16,'Results 3'!G16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="n">
+      <c r="H16" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H16,'Results 2'!H16,'Results 3'!H16)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="29" t="n">
+      <c r="I16" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I16,'Results 2'!I16,'Results 3'!I16)</f>
         <v>142976.666666667</v>
       </c>
@@ -1352,32 +3349,30 @@
         <f aca="false">D16-(E16+F16)/4</f>
         <v>54.2233333333333</v>
       </c>
-      <c r="M16" s="30" t="n">
+      <c r="M16" s="31" t="n">
         <f aca="false">D16/C16</f>
         <v>0.108486666666667</v>
       </c>
-      <c r="N16" s="30" t="n">
+      <c r="N16" s="31" t="n">
         <f aca="false">E16/C16</f>
         <v>3.33333333333333E-005</v>
       </c>
-      <c r="O16" s="31" t="n">
+      <c r="O16" s="32" t="n">
         <f aca="false">F16/C16</f>
         <v>0.000126666666666667</v>
       </c>
-      <c r="P16" s="28" t="n">
+      <c r="P16" s="29" t="n">
         <f aca="false">H16/C16</f>
         <v>0.002</v>
       </c>
-      <c r="Q16" s="28" t="n">
+      <c r="Q16" s="29" t="n">
         <f aca="false">I16/C16</f>
         <v>285.953333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="4"/>
-      <c r="B17" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="33" t="n">
         <f aca="false">AVERAGE('Results 1'!C17,'Results 2'!C17,'Results 3'!C17)</f>
         <v>10</v>
@@ -1433,32 +3428,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="13" t="n">
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C18,'Results 2'!C18,'Results 3'!C18)</f>
         <v>50</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D18,'Results 2'!D18,'Results 3'!D18)</f>
         <v>9.89333333333333</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E18,'Results 2'!E18,'Results 3'!E18)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F18,'Results 2'!F18,'Results 3'!F18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G18,'Results 2'!G18,'Results 3'!G18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="15" t="n">
+      <c r="H18" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H18,'Results 2'!H18,'Results 3'!H18)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I18,'Results 2'!I18,'Results 3'!I18)</f>
         <v>10052</v>
       </c>
@@ -1466,55 +3463,55 @@
         <f aca="false">D18-(E18+F18)/4</f>
         <v>9.89333333333333</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="M18" s="18" t="n">
         <f aca="false">D18/C18</f>
         <v>0.197866666666667</v>
       </c>
-      <c r="N18" s="17" t="n">
+      <c r="N18" s="18" t="n">
         <f aca="false">E18/C18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="18" t="n">
+      <c r="O18" s="19" t="n">
         <f aca="false">F18/C18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="16" t="n">
         <f aca="false">H18/C18</f>
         <v>0.02</v>
       </c>
-      <c r="Q18" s="15" t="n">
+      <c r="Q18" s="16" t="n">
         <f aca="false">I18/C18</f>
         <v>201.04</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="26" t="n">
+      <c r="B19" s="20"/>
+      <c r="C19" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C19,'Results 2'!C19,'Results 3'!C19)</f>
         <v>500</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D19,'Results 2'!D19,'Results 3'!D19)</f>
         <v>51.4</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E19,'Results 2'!E19,'Results 3'!E19)</f>
         <v>0.0166666666666667</v>
       </c>
-      <c r="F19" s="27" t="n">
+      <c r="F19" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F19,'Results 2'!F19,'Results 3'!F19)</f>
         <v>0.0433333333333333</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G19,'Results 2'!G19,'Results 3'!G19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="28" t="n">
+      <c r="H19" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H19,'Results 2'!H19,'Results 3'!H19)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="I19" s="29" t="n">
+      <c r="I19" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I19,'Results 2'!I19,'Results 3'!I19)</f>
         <v>133495.333333333</v>
       </c>
@@ -1522,23 +3519,23 @@
         <f aca="false">D19-(E19+F19)/4</f>
         <v>51.385</v>
       </c>
-      <c r="M19" s="30" t="n">
+      <c r="M19" s="31" t="n">
         <f aca="false">D19/C19</f>
         <v>0.1028</v>
       </c>
-      <c r="N19" s="30" t="n">
+      <c r="N19" s="31" t="n">
         <f aca="false">E19/C19</f>
         <v>3.33333333333333E-005</v>
       </c>
-      <c r="O19" s="31" t="n">
+      <c r="O19" s="32" t="n">
         <f aca="false">F19/C19</f>
         <v>8.66666666666667E-005</v>
       </c>
-      <c r="P19" s="28" t="n">
+      <c r="P19" s="29" t="n">
         <f aca="false">H19/C19</f>
         <v>0.00266666666666667</v>
       </c>
-      <c r="Q19" s="28" t="n">
+      <c r="Q19" s="29" t="n">
         <f aca="false">I19/C19</f>
         <v>266.990666666667</v>
       </c>
@@ -1547,9 +3544,7 @@
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C20,'Results 2'!C20,'Results 3'!C20)</f>
         <v>10</v>
@@ -1605,32 +3600,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="n">
+      <c r="B21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C21,'Results 2'!C21,'Results 3'!C21)</f>
         <v>50</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D21,'Results 2'!D21,'Results 3'!D21)</f>
         <v>47.7566666666667</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E21,'Results 2'!E21,'Results 3'!E21)</f>
         <v>126.026666666667</v>
       </c>
-      <c r="F21" s="14" t="n">
+      <c r="F21" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F21,'Results 2'!F21,'Results 3'!F21)</f>
         <v>0.216666666666667</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G21,'Results 2'!G21,'Results 3'!G21)</f>
         <v>264.333333333333</v>
       </c>
-      <c r="H21" s="15" t="n">
+      <c r="H21" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H21,'Results 2'!H21,'Results 3'!H21)</f>
         <v>33243.6666666667</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I21" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I21,'Results 2'!I21,'Results 3'!I21)</f>
         <v>25253</v>
       </c>
@@ -1638,55 +3635,55 @@
         <f aca="false">D21-(E21+F21)/4</f>
         <v>16.1958333333333</v>
       </c>
-      <c r="M21" s="17" t="n">
+      <c r="M21" s="18" t="n">
         <f aca="false">D21/C21</f>
         <v>0.955133333333333</v>
       </c>
-      <c r="N21" s="17" t="n">
+      <c r="N21" s="18" t="n">
         <f aca="false">E21/C21</f>
         <v>2.52053333333333</v>
       </c>
-      <c r="O21" s="18" t="n">
+      <c r="O21" s="19" t="n">
         <f aca="false">F21/C21</f>
         <v>0.00433333333333333</v>
       </c>
-      <c r="P21" s="15" t="n">
+      <c r="P21" s="16" t="n">
         <f aca="false">H21/C21</f>
         <v>664.873333333333</v>
       </c>
-      <c r="Q21" s="15" t="n">
+      <c r="Q21" s="16" t="n">
         <f aca="false">I21/C21</f>
         <v>505.06</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="19" t="n">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="n">
         <f aca="false">AVERAGE('Results 1'!C22,'Results 2'!C22,'Results 3'!C22)</f>
         <v>500</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!D22,'Results 2'!D22,'Results 3'!D22)</f>
         <v>416.596666666667</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!E22,'Results 2'!E22,'Results 3'!E22)</f>
         <v>1588.08333333333</v>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="F22" s="22" t="n">
         <f aca="false">AVERAGE('Results 1'!F22,'Results 2'!F22,'Results 3'!F22)</f>
         <v>2.95333333333333</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="23" t="n">
         <f aca="false">AVERAGE('Results 1'!G22,'Results 2'!G22,'Results 3'!G22)</f>
         <v>381.333333333333</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="H22" s="23" t="n">
         <f aca="false">AVERAGE('Results 1'!H22,'Results 2'!H22,'Results 3'!H22)</f>
         <v>461418.666666667</v>
       </c>
-      <c r="I22" s="22" t="n">
+      <c r="I22" s="24" t="n">
         <f aca="false">AVERAGE('Results 1'!I22,'Results 2'!I22,'Results 3'!I22)</f>
         <v>236701</v>
       </c>
@@ -1694,32 +3691,30 @@
         <f aca="false">D22-(E22+F22)/4</f>
         <v>18.8375</v>
       </c>
-      <c r="M22" s="23" t="n">
+      <c r="M22" s="25" t="n">
         <f aca="false">D22/C22</f>
         <v>0.833193333333333</v>
       </c>
-      <c r="N22" s="23" t="n">
+      <c r="N22" s="25" t="n">
         <f aca="false">E22/C22</f>
         <v>3.17616666666667</v>
       </c>
-      <c r="O22" s="24" t="n">
+      <c r="O22" s="26" t="n">
         <f aca="false">F22/C22</f>
         <v>0.00590666666666667</v>
       </c>
-      <c r="P22" s="21" t="n">
+      <c r="P22" s="23" t="n">
         <f aca="false">H22/C22</f>
         <v>922.837333333333</v>
       </c>
-      <c r="Q22" s="21" t="n">
+      <c r="Q22" s="23" t="n">
         <f aca="false">I22/C22</f>
         <v>473.402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4"/>
-      <c r="B23" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="6" t="n">
         <f aca="false">AVERAGE('Results 1'!C23,'Results 2'!C23,'Results 3'!C23)</f>
         <v>10</v>
@@ -1775,32 +3770,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13" t="n">
+      <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C24,'Results 2'!C24,'Results 3'!C24)</f>
         <v>50</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D24,'Results 2'!D24,'Results 3'!D24)</f>
         <v>55.7966666666667</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E24,'Results 2'!E24,'Results 3'!E24)</f>
         <v>152.796666666667</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F24,'Results 2'!F24,'Results 3'!F24)</f>
         <v>0.243333333333333</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G24,'Results 2'!G24,'Results 3'!G24)</f>
         <v>274.333333333333</v>
       </c>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H24,'Results 2'!H24,'Results 3'!H24)</f>
         <v>2.66666666666667</v>
       </c>
-      <c r="I24" s="16" t="n">
+      <c r="I24" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I24,'Results 2'!I24,'Results 3'!I24)</f>
         <v>21424.6666666667</v>
       </c>
@@ -1808,55 +3805,55 @@
         <f aca="false">D24-(E24+F24)/4</f>
         <v>17.5366666666667</v>
       </c>
-      <c r="M24" s="17" t="n">
+      <c r="M24" s="18" t="n">
         <f aca="false">D24/C24</f>
         <v>1.11593333333333</v>
       </c>
-      <c r="N24" s="17" t="n">
+      <c r="N24" s="18" t="n">
         <f aca="false">E24/C24</f>
         <v>3.05593333333333</v>
       </c>
-      <c r="O24" s="18" t="n">
+      <c r="O24" s="19" t="n">
         <f aca="false">F24/C24</f>
         <v>0.00486666666666667</v>
       </c>
-      <c r="P24" s="15" t="n">
+      <c r="P24" s="16" t="n">
         <f aca="false">H24/C24</f>
         <v>0.0533333333333333</v>
       </c>
-      <c r="Q24" s="15" t="n">
+      <c r="Q24" s="16" t="n">
         <f aca="false">I24/C24</f>
         <v>428.493333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="4"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="n">
+      <c r="B25" s="20"/>
+      <c r="C25" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C25,'Results 2'!C25,'Results 3'!C25)</f>
         <v>500</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D25,'Results 2'!D25,'Results 3'!D25)</f>
         <v>464.276666666667</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E25,'Results 2'!E25,'Results 3'!E25)</f>
         <v>1747.48666666667</v>
       </c>
-      <c r="F25" s="27" t="n">
+      <c r="F25" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F25,'Results 2'!F25,'Results 3'!F25)</f>
         <v>2.67</v>
       </c>
-      <c r="G25" s="28" t="n">
+      <c r="G25" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G25,'Results 2'!G25,'Results 3'!G25)</f>
         <v>376.333333333333</v>
       </c>
-      <c r="H25" s="28" t="n">
+      <c r="H25" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H25,'Results 2'!H25,'Results 3'!H25)</f>
         <v>1732</v>
       </c>
-      <c r="I25" s="29" t="n">
+      <c r="I25" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I25,'Results 2'!I25,'Results 3'!I25)</f>
         <v>186482.333333333</v>
       </c>
@@ -1864,32 +3861,30 @@
         <f aca="false">D25-(E25+F25)/4</f>
         <v>26.7375</v>
       </c>
-      <c r="M25" s="30" t="n">
+      <c r="M25" s="31" t="n">
         <f aca="false">D25/C25</f>
         <v>0.928553333333333</v>
       </c>
-      <c r="N25" s="30" t="n">
+      <c r="N25" s="31" t="n">
         <f aca="false">E25/C25</f>
         <v>3.49497333333333</v>
       </c>
-      <c r="O25" s="31" t="n">
+      <c r="O25" s="32" t="n">
         <f aca="false">F25/C25</f>
         <v>0.00534</v>
       </c>
-      <c r="P25" s="28" t="n">
+      <c r="P25" s="29" t="n">
         <f aca="false">H25/C25</f>
         <v>3.464</v>
       </c>
-      <c r="Q25" s="28" t="n">
+      <c r="Q25" s="29" t="n">
         <f aca="false">I25/C25</f>
         <v>372.964666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="4"/>
-      <c r="B26" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="33" t="n">
         <f aca="false">AVERAGE('Results 1'!C26,'Results 2'!C26,'Results 3'!C26)</f>
         <v>10</v>
@@ -1945,32 +3940,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="13" t="n">
+      <c r="B27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14" t="n">
         <f aca="false">AVERAGE('Results 1'!C27,'Results 2'!C27,'Results 3'!C27)</f>
         <v>50</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!D27,'Results 2'!D27,'Results 3'!D27)</f>
         <v>57.1233333333333</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!E27,'Results 2'!E27,'Results 3'!E27)</f>
         <v>150.48</v>
       </c>
-      <c r="F27" s="14" t="n">
+      <c r="F27" s="15" t="n">
         <f aca="false">AVERAGE('Results 1'!F27,'Results 2'!F27,'Results 3'!F27)</f>
         <v>0.186666666666667</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!G27,'Results 2'!G27,'Results 3'!G27)</f>
         <v>263</v>
       </c>
-      <c r="H27" s="15" t="n">
+      <c r="H27" s="16" t="n">
         <f aca="false">AVERAGE('Results 1'!H27,'Results 2'!H27,'Results 3'!H27)</f>
         <v>1258.33333333333</v>
       </c>
-      <c r="I27" s="16" t="n">
+      <c r="I27" s="17" t="n">
         <f aca="false">AVERAGE('Results 1'!I27,'Results 2'!I27,'Results 3'!I27)</f>
         <v>21701</v>
       </c>
@@ -1978,55 +3975,55 @@
         <f aca="false">D27-(E27+F27)/4</f>
         <v>19.4566666666667</v>
       </c>
-      <c r="M27" s="17" t="n">
+      <c r="M27" s="18" t="n">
         <f aca="false">D27/C27</f>
         <v>1.14246666666667</v>
       </c>
-      <c r="N27" s="17" t="n">
+      <c r="N27" s="18" t="n">
         <f aca="false">E27/C27</f>
         <v>3.0096</v>
       </c>
-      <c r="O27" s="18" t="n">
+      <c r="O27" s="19" t="n">
         <f aca="false">F27/C27</f>
         <v>0.00373333333333333</v>
       </c>
-      <c r="P27" s="15" t="n">
+      <c r="P27" s="16" t="n">
         <f aca="false">H27/C27</f>
         <v>25.1666666666667</v>
       </c>
-      <c r="Q27" s="15" t="n">
+      <c r="Q27" s="16" t="n">
         <f aca="false">I27/C27</f>
         <v>434.02</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="26" t="n">
+      <c r="B28" s="20"/>
+      <c r="C28" s="27" t="n">
         <f aca="false">AVERAGE('Results 1'!C28,'Results 2'!C28,'Results 3'!C28)</f>
         <v>500</v>
       </c>
-      <c r="D28" s="27" t="n">
+      <c r="D28" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!D28,'Results 2'!D28,'Results 3'!D28)</f>
         <v>464.796666666667</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!E28,'Results 2'!E28,'Results 3'!E28)</f>
         <v>1753.86</v>
       </c>
-      <c r="F28" s="27" t="n">
+      <c r="F28" s="28" t="n">
         <f aca="false">AVERAGE('Results 1'!F28,'Results 2'!F28,'Results 3'!F28)</f>
         <v>2.26666666666667</v>
       </c>
-      <c r="G28" s="28" t="n">
+      <c r="G28" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!G28,'Results 2'!G28,'Results 3'!G28)</f>
         <v>377.333333333333</v>
       </c>
-      <c r="H28" s="28" t="n">
+      <c r="H28" s="29" t="n">
         <f aca="false">AVERAGE('Results 1'!H28,'Results 2'!H28,'Results 3'!H28)</f>
         <v>18655</v>
       </c>
-      <c r="I28" s="29" t="n">
+      <c r="I28" s="30" t="n">
         <f aca="false">AVERAGE('Results 1'!I28,'Results 2'!I28,'Results 3'!I28)</f>
         <v>172993.333333333</v>
       </c>
@@ -2034,23 +4031,23 @@
         <f aca="false">D28-(E28+F28)/4</f>
         <v>25.765</v>
       </c>
-      <c r="M28" s="30" t="n">
+      <c r="M28" s="31" t="n">
         <f aca="false">D28/C28</f>
         <v>0.929593333333333</v>
       </c>
-      <c r="N28" s="30" t="n">
+      <c r="N28" s="31" t="n">
         <f aca="false">E28/C28</f>
         <v>3.50772</v>
       </c>
-      <c r="O28" s="31" t="n">
+      <c r="O28" s="32" t="n">
         <f aca="false">F28/C28</f>
         <v>0.00453333333333333</v>
       </c>
-      <c r="P28" s="28" t="n">
+      <c r="P28" s="29" t="n">
         <f aca="false">H28/C28</f>
         <v>37.31</v>
       </c>
-      <c r="Q28" s="28" t="n">
+      <c r="Q28" s="29" t="n">
         <f aca="false">I28/C28</f>
         <v>345.986666666667</v>
       </c>
@@ -2065,30 +4062,21 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="K32" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="K33" s="0" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2107,21 +4095,21 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="11.1803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="11.2862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="15.4117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.16078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1" s="2">
@@ -2154,10 +4142,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2183,8 +4171,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
@@ -2208,8 +4196,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="0" t="n">
         <v>500</v>
       </c>
@@ -2233,8 +4221,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2260,8 +4248,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
@@ -2285,8 +4273,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="0" t="n">
         <v>500</v>
       </c>
@@ -2310,8 +4298,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2337,8 +4325,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="0" t="n">
         <v>50</v>
       </c>
@@ -2362,8 +4350,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="0" t="n">
         <v>500</v>
       </c>
@@ -2387,10 +4375,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2416,8 +4404,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="0" t="n">
         <v>50</v>
       </c>
@@ -2441,8 +4429,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="0" t="n">
         <v>500</v>
       </c>
@@ -2466,8 +4454,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -2493,8 +4481,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="0" t="n">
         <v>50</v>
       </c>
@@ -2518,8 +4506,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="0" t="n">
         <v>500</v>
       </c>
@@ -2543,8 +4531,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -2570,8 +4558,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="0" t="n">
         <v>50</v>
       </c>
@@ -2595,8 +4583,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="0" t="n">
         <v>500</v>
       </c>
@@ -2620,10 +4608,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -2649,8 +4637,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="0" t="n">
         <v>50</v>
       </c>
@@ -2674,8 +4662,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="0" t="n">
         <v>500</v>
       </c>
@@ -2699,8 +4687,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -2726,8 +4714,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="0" t="n">
         <v>50</v>
       </c>
@@ -2751,8 +4739,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="0" t="n">
         <v>500</v>
       </c>
@@ -2776,8 +4764,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -2803,8 +4791,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
@@ -2828,8 +4816,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="0" t="n">
         <v>500</v>
       </c>
@@ -2884,21 +4872,21 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.16078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1" s="2">
@@ -2931,10 +4919,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2960,8 +4948,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
@@ -2985,8 +4973,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="0" t="n">
         <v>500</v>
       </c>
@@ -3010,8 +4998,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -3037,8 +5025,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
@@ -3062,8 +5050,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="0" t="n">
         <v>500</v>
       </c>
@@ -3087,8 +5075,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -3114,8 +5102,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="0" t="n">
         <v>50</v>
       </c>
@@ -3139,8 +5127,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="0" t="n">
         <v>500</v>
       </c>
@@ -3164,10 +5152,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -3193,8 +5181,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="0" t="n">
         <v>50</v>
       </c>
@@ -3218,8 +5206,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="0" t="n">
         <v>500</v>
       </c>
@@ -3243,8 +5231,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3270,8 +5258,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="0" t="n">
         <v>50</v>
       </c>
@@ -3295,8 +5283,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="0" t="n">
         <v>500</v>
       </c>
@@ -3320,8 +5308,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -3347,8 +5335,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="0" t="n">
         <v>50</v>
       </c>
@@ -3372,8 +5360,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="0" t="n">
         <v>500</v>
       </c>
@@ -3397,10 +5385,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -3426,8 +5414,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="0" t="n">
         <v>50</v>
       </c>
@@ -3451,8 +5439,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="0" t="n">
         <v>500</v>
       </c>
@@ -3476,8 +5464,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -3503,8 +5491,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="0" t="n">
         <v>50</v>
       </c>
@@ -3528,8 +5516,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="0" t="n">
         <v>500</v>
       </c>
@@ -3553,8 +5541,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -3580,8 +5568,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
@@ -3605,8 +5593,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="0" t="n">
         <v>500</v>
       </c>
@@ -3661,21 +5649,21 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.07058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.09019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.16078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.16470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.14117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.86666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1" s="2">
@@ -3708,10 +5696,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -3737,8 +5725,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
@@ -3762,8 +5750,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="0" t="n">
         <v>500</v>
       </c>
@@ -3787,8 +5775,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -3814,8 +5802,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
@@ -3839,8 +5827,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="0" t="n">
         <v>500</v>
       </c>
@@ -3864,8 +5852,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -3891,8 +5879,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="0" t="n">
         <v>50</v>
       </c>
@@ -3916,8 +5904,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="0" t="n">
         <v>500</v>
       </c>
@@ -3941,10 +5929,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -3970,8 +5958,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="0" t="n">
         <v>50</v>
       </c>
@@ -3995,8 +5983,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="0" t="n">
         <v>500</v>
       </c>
@@ -4020,8 +6008,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -4047,8 +6035,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="0" t="n">
         <v>50</v>
       </c>
@@ -4072,8 +6060,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="0" t="n">
         <v>500</v>
       </c>
@@ -4097,8 +6085,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -4124,8 +6112,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="0" t="n">
         <v>50</v>
       </c>
@@ -4149,8 +6137,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="0" t="n">
         <v>500</v>
       </c>
@@ -4174,10 +6162,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -4203,8 +6191,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="0" t="n">
         <v>50</v>
       </c>
@@ -4228,8 +6216,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="0" t="n">
         <v>500</v>
       </c>
@@ -4253,8 +6241,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -4280,8 +6268,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="0" t="n">
         <v>50</v>
       </c>
@@ -4305,8 +6293,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="0" t="n">
         <v>500</v>
       </c>
@@ -4330,8 +6318,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -4357,8 +6345,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="0" t="n">
         <v>50</v>
       </c>
@@ -4382,8 +6370,8 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="0" t="n">
         <v>500</v>
       </c>
@@ -4429,4 +6417,2675 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AD31"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A64" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="N96" activeCellId="0" pane="topLeft" sqref="N96"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.2078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.2078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="16.2078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2313725490196"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.2078431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.2313725490196"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="16.2078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.9372549019608"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.2313725490196"/>
+    <col collapsed="false" hidden="false" max="45" min="26" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="11.6313725490196"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="2">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="46" t="n">
+        <v>1.28366666666667</v>
+      </c>
+      <c r="D3" s="47" t="n">
+        <v>1.26786666666667</v>
+      </c>
+      <c r="E3" s="48" t="n">
+        <v>1.77694666666667</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="46" t="n">
+        <v>5.03966666666667</v>
+      </c>
+      <c r="I3" s="47" t="n">
+        <v>5.04393333333333</v>
+      </c>
+      <c r="J3" s="48" t="n">
+        <v>7.06521333333333</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="49" t="n">
+        <v>0.00333333333333333</v>
+      </c>
+      <c r="N3" s="50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O3" s="51" t="n">
+        <v>0.00229333333333333</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="52" t="n">
+        <v>687.133333333333</v>
+      </c>
+      <c r="S3" s="53" t="n">
+        <v>1307.51333333333</v>
+      </c>
+      <c r="T3" s="54" t="n">
+        <v>1823.95733333333</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="52" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="X3" s="53" t="n">
+        <v>2.07333333333333</v>
+      </c>
+      <c r="Y3" s="54" t="n">
+        <v>2.02733333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="46" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="D4" s="47" t="n">
+        <v>1.79973333333333</v>
+      </c>
+      <c r="E4" s="48" t="n">
+        <v>1.85789333333333</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="46" t="n">
+        <v>6.35633333333333</v>
+      </c>
+      <c r="I4" s="47" t="n">
+        <v>6.53626666666667</v>
+      </c>
+      <c r="J4" s="48" t="n">
+        <v>7.04739333333333</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="49" t="n">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="N4" s="50" t="n">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="O4" s="51" t="n">
+        <v>0.00195333333333333</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="52" t="n">
+        <v>4.96666666666667</v>
+      </c>
+      <c r="S4" s="53" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="T4" s="54" t="n">
+        <v>7.37066666666667</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y4" s="54" t="n">
+        <v>1.01066666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D5" s="47" t="n">
+        <v>1.77146666666667</v>
+      </c>
+      <c r="E5" s="48" t="n">
+        <v>1.86926</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="46" t="n">
+        <v>6.482</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>6.5936</v>
+      </c>
+      <c r="J5" s="48" t="n">
+        <v>7.10593333333333</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="49" t="n">
+        <v>0.00133333333333333</v>
+      </c>
+      <c r="N5" s="50" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="O5" s="51" t="n">
+        <v>0.00152666666666667</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="52" t="n">
+        <v>21.4666666666667</v>
+      </c>
+      <c r="S5" s="53" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="T5" s="54" t="n">
+        <v>27.0026666666667</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="52" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="X5" s="53" t="n">
+        <v>1.51333333333333</v>
+      </c>
+      <c r="Y5" s="54" t="n">
+        <v>1.58133333333333</v>
+      </c>
+      <c r="AD5" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="46" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="D6" s="47" t="n">
+        <v>0.354466666666667</v>
+      </c>
+      <c r="E6" s="48" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I6" s="47" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>8.66666666666667E-005</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="49" t="n">
+        <v>0.00266666666666667</v>
+      </c>
+      <c r="N6" s="50" t="n">
+        <v>0.00113333333333333</v>
+      </c>
+      <c r="O6" s="51" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" s="53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T6" s="54" t="n">
+        <v>1.08866666666667</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="52" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="X6" s="53" t="n">
+        <v>339.14</v>
+      </c>
+      <c r="Y6" s="54" t="n">
+        <v>326.947333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="46" t="n">
+        <v>0.549666666666667</v>
+      </c>
+      <c r="D7" s="47" t="n">
+        <v>0.2402</v>
+      </c>
+      <c r="E7" s="48" t="n">
+        <v>0.108486666666667</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="47" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J7" s="48" t="n">
+        <v>3.33333333333333E-005</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50" t="n">
+        <v>0.000466666666666667</v>
+      </c>
+      <c r="O7" s="51" t="n">
+        <v>0.000126666666666667</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="53" t="n">
+        <v>0.0266666666666667</v>
+      </c>
+      <c r="T7" s="54" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="52" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="X7" s="53" t="n">
+        <v>249.886666666667</v>
+      </c>
+      <c r="Y7" s="54" t="n">
+        <v>285.953333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="46" t="n">
+        <v>0.564333333333333</v>
+      </c>
+      <c r="D8" s="47" t="n">
+        <v>0.197866666666667</v>
+      </c>
+      <c r="E8" s="48" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48" t="n">
+        <v>3.33333333333333E-005</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="51" t="n">
+        <v>8.66666666666667E-005</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="52" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="S8" s="53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="54" t="n">
+        <v>0.00266666666666667</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="52" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="X8" s="53" t="n">
+        <v>201.04</v>
+      </c>
+      <c r="Y8" s="54" t="n">
+        <v>266.990666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="46" t="n">
+        <v>2.24166666666667</v>
+      </c>
+      <c r="D9" s="47" t="n">
+        <v>0.955133333333333</v>
+      </c>
+      <c r="E9" s="48" t="n">
+        <v>0.833193333333333</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="46" t="n">
+        <v>2.52966666666667</v>
+      </c>
+      <c r="I9" s="47" t="n">
+        <v>2.52053333333333</v>
+      </c>
+      <c r="J9" s="48" t="n">
+        <v>3.17616666666667</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="49" t="n">
+        <v>0.00566666666666667</v>
+      </c>
+      <c r="N9" s="50" t="n">
+        <v>0.00433333333333333</v>
+      </c>
+      <c r="O9" s="51" t="n">
+        <v>0.00590666666666667</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="52" t="n">
+        <v>365.666666666667</v>
+      </c>
+      <c r="S9" s="53" t="n">
+        <v>664.873333333333</v>
+      </c>
+      <c r="T9" s="54" t="n">
+        <v>922.837333333333</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="52" t="n">
+        <v>496.866666666667</v>
+      </c>
+      <c r="X9" s="53" t="n">
+        <v>505.06</v>
+      </c>
+      <c r="Y9" s="54" t="n">
+        <v>473.402</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="D10" s="47" t="n">
+        <v>1.11593333333333</v>
+      </c>
+      <c r="E10" s="48" t="n">
+        <v>0.928553333333333</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="46" t="n">
+        <v>2.92433333333333</v>
+      </c>
+      <c r="I10" s="47" t="n">
+        <v>3.05593333333333</v>
+      </c>
+      <c r="J10" s="48" t="n">
+        <v>3.49497333333333</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="49" t="n">
+        <v>0.00533333333333333</v>
+      </c>
+      <c r="N10" s="50" t="n">
+        <v>0.00486666666666667</v>
+      </c>
+      <c r="O10" s="51" t="n">
+        <v>0.00534</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="53" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="T10" s="54" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="U10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" s="52" t="n">
+        <v>426.233333333333</v>
+      </c>
+      <c r="X10" s="53" t="n">
+        <v>428.493333333333</v>
+      </c>
+      <c r="Y10" s="54" t="n">
+        <v>372.964666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="46" t="n">
+        <v>2.27933333333333</v>
+      </c>
+      <c r="D11" s="47" t="n">
+        <v>1.14246666666667</v>
+      </c>
+      <c r="E11" s="48" t="n">
+        <v>0.929593333333333</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="46" t="n">
+        <v>3.00033333333333</v>
+      </c>
+      <c r="I11" s="47" t="n">
+        <v>3.0096</v>
+      </c>
+      <c r="J11" s="48" t="n">
+        <v>3.50772</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N11" s="50" t="n">
+        <v>0.00373333333333333</v>
+      </c>
+      <c r="O11" s="51" t="n">
+        <v>0.00453333333333333</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="52" t="n">
+        <v>12.2666666666667</v>
+      </c>
+      <c r="S11" s="53" t="n">
+        <v>25.1666666666667</v>
+      </c>
+      <c r="T11" s="54" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="U11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="52" t="n">
+        <v>434.3</v>
+      </c>
+      <c r="X11" s="53" t="n">
+        <v>434.02</v>
+      </c>
+      <c r="Y11" s="54" t="n">
+        <v>345.986666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="B14" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="15">
+      <c r="B15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="16">
+      <c r="B16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="B17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="46" t="n">
+        <v>1.28366666666667</v>
+      </c>
+      <c r="D17" s="46" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="E17" s="46" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="46" t="n">
+        <v>5.03966666666667</v>
+      </c>
+      <c r="I17" s="46" t="n">
+        <v>6.35633333333333</v>
+      </c>
+      <c r="J17" s="46" t="n">
+        <v>6.482</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="49" t="n">
+        <v>0.00333333333333333</v>
+      </c>
+      <c r="N17" s="49" t="n">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="O17" s="49" t="n">
+        <v>0.00133333333333333</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="52" t="n">
+        <v>687.133333333333</v>
+      </c>
+      <c r="S17" s="52" t="n">
+        <v>4.96666666666667</v>
+      </c>
+      <c r="T17" s="52" t="n">
+        <v>21.4666666666667</v>
+      </c>
+      <c r="V17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="52" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="X17" s="52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y17" s="52" t="n">
+        <v>1.76666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="B18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="47" t="n">
+        <v>1.26786666666667</v>
+      </c>
+      <c r="D18" s="47" t="n">
+        <v>1.79973333333333</v>
+      </c>
+      <c r="E18" s="47" t="n">
+        <v>1.77146666666667</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <v>5.04393333333333</v>
+      </c>
+      <c r="I18" s="47" t="n">
+        <v>6.53626666666667</v>
+      </c>
+      <c r="J18" s="47" t="n">
+        <v>6.5936</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N18" s="50" t="n">
+        <v>0.00166666666666667</v>
+      </c>
+      <c r="O18" s="50" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="53" t="n">
+        <v>1307.51333333333</v>
+      </c>
+      <c r="S18" s="53" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="T18" s="53" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="V18" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="53" t="n">
+        <v>2.07333333333333</v>
+      </c>
+      <c r="X18" s="53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y18" s="53" t="n">
+        <v>1.51333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="B19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="48" t="n">
+        <v>1.77694666666667</v>
+      </c>
+      <c r="D19" s="48" t="n">
+        <v>1.85789333333333</v>
+      </c>
+      <c r="E19" s="48" t="n">
+        <v>1.86926</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="48" t="n">
+        <v>7.06521333333333</v>
+      </c>
+      <c r="I19" s="48" t="n">
+        <v>7.04739333333333</v>
+      </c>
+      <c r="J19" s="48" t="n">
+        <v>7.10593333333333</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="51" t="n">
+        <v>0.00229333333333333</v>
+      </c>
+      <c r="N19" s="51" t="n">
+        <v>0.00195333333333333</v>
+      </c>
+      <c r="O19" s="51" t="n">
+        <v>0.00152666666666667</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="54" t="n">
+        <v>1823.95733333333</v>
+      </c>
+      <c r="S19" s="54" t="n">
+        <v>7.37066666666667</v>
+      </c>
+      <c r="T19" s="54" t="n">
+        <v>27.0026666666667</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="54" t="n">
+        <v>2.02733333333333</v>
+      </c>
+      <c r="X19" s="54" t="n">
+        <v>1.01066666666667</v>
+      </c>
+      <c r="Y19" s="54" t="n">
+        <v>1.58133333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="21">
+      <c r="B21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="22">
+      <c r="B22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="B23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="46" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="D23" s="46" t="n">
+        <v>0.549666666666667</v>
+      </c>
+      <c r="E23" s="46" t="n">
+        <v>0.564333333333333</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I23" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="49" t="n">
+        <v>0.00266666666666667</v>
+      </c>
+      <c r="N23" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S23" s="52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T23" s="52" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="V23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="52" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="X23" s="52" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="Y23" s="52" t="n">
+        <v>201.2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="B24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="47" t="n">
+        <v>0.354466666666667</v>
+      </c>
+      <c r="D24" s="47" t="n">
+        <v>0.2402</v>
+      </c>
+      <c r="E24" s="47" t="n">
+        <v>0.197866666666667</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="47" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I24" s="47" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J24" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="50" t="n">
+        <v>0.00113333333333333</v>
+      </c>
+      <c r="N24" s="50" t="n">
+        <v>0.000466666666666667</v>
+      </c>
+      <c r="O24" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S24" s="53" t="n">
+        <v>0.0266666666666667</v>
+      </c>
+      <c r="T24" s="53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="53" t="n">
+        <v>339.14</v>
+      </c>
+      <c r="X24" s="53" t="n">
+        <v>249.886666666667</v>
+      </c>
+      <c r="Y24" s="53" t="n">
+        <v>201.04</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="B25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="48" t="n">
+        <v>0.1232</v>
+      </c>
+      <c r="D25" s="48" t="n">
+        <v>0.108486666666667</v>
+      </c>
+      <c r="E25" s="48" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="48" t="n">
+        <v>8.66666666666667E-005</v>
+      </c>
+      <c r="I25" s="48" t="n">
+        <v>3.33333333333333E-005</v>
+      </c>
+      <c r="J25" s="48" t="n">
+        <v>3.33333333333333E-005</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="51" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="N25" s="51" t="n">
+        <v>0.000126666666666667</v>
+      </c>
+      <c r="O25" s="51" t="n">
+        <v>8.66666666666667E-005</v>
+      </c>
+      <c r="Q25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="54" t="n">
+        <v>1.08866666666667</v>
+      </c>
+      <c r="S25" s="54" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="T25" s="54" t="n">
+        <v>0.00266666666666667</v>
+      </c>
+      <c r="V25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="54" t="n">
+        <v>326.947333333333</v>
+      </c>
+      <c r="X25" s="54" t="n">
+        <v>285.953333333333</v>
+      </c>
+      <c r="Y25" s="54" t="n">
+        <v>266.990666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.25" outlineLevel="0" r="27">
+      <c r="B27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.05" outlineLevel="0" r="28">
+      <c r="B28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y28" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="B29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="46" t="n">
+        <v>2.24166666666667</v>
+      </c>
+      <c r="D29" s="46" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="E29" s="46" t="n">
+        <v>2.27933333333333</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="46" t="n">
+        <v>2.52966666666667</v>
+      </c>
+      <c r="I29" s="46" t="n">
+        <v>2.92433333333333</v>
+      </c>
+      <c r="J29" s="46" t="n">
+        <v>3.00033333333333</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="49" t="n">
+        <v>0.00566666666666667</v>
+      </c>
+      <c r="N29" s="49" t="n">
+        <v>0.00533333333333333</v>
+      </c>
+      <c r="O29" s="49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="52" t="n">
+        <v>365.666666666667</v>
+      </c>
+      <c r="S29" s="52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T29" s="52" t="n">
+        <v>12.2666666666667</v>
+      </c>
+      <c r="V29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="W29" s="52" t="n">
+        <v>496.866666666667</v>
+      </c>
+      <c r="X29" s="52" t="n">
+        <v>426.233333333333</v>
+      </c>
+      <c r="Y29" s="52" t="n">
+        <v>434.3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="B30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="47" t="n">
+        <v>0.955133333333333</v>
+      </c>
+      <c r="D30" s="47" t="n">
+        <v>1.11593333333333</v>
+      </c>
+      <c r="E30" s="47" t="n">
+        <v>1.14246666666667</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="47" t="n">
+        <v>2.52053333333333</v>
+      </c>
+      <c r="I30" s="47" t="n">
+        <v>3.05593333333333</v>
+      </c>
+      <c r="J30" s="47" t="n">
+        <v>3.0096</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="50" t="n">
+        <v>0.00433333333333333</v>
+      </c>
+      <c r="N30" s="50" t="n">
+        <v>0.00486666666666667</v>
+      </c>
+      <c r="O30" s="50" t="n">
+        <v>0.00373333333333333</v>
+      </c>
+      <c r="Q30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="53" t="n">
+        <v>664.873333333333</v>
+      </c>
+      <c r="S30" s="53" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="T30" s="53" t="n">
+        <v>25.1666666666667</v>
+      </c>
+      <c r="V30" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="53" t="n">
+        <v>505.06</v>
+      </c>
+      <c r="X30" s="53" t="n">
+        <v>428.493333333333</v>
+      </c>
+      <c r="Y30" s="53" t="n">
+        <v>434.02</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="B31" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="48" t="n">
+        <v>0.833193333333333</v>
+      </c>
+      <c r="D31" s="48" t="n">
+        <v>0.928553333333333</v>
+      </c>
+      <c r="E31" s="48" t="n">
+        <v>0.929593333333333</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="48" t="n">
+        <v>3.17616666666667</v>
+      </c>
+      <c r="I31" s="48" t="n">
+        <v>3.49497333333333</v>
+      </c>
+      <c r="J31" s="48" t="n">
+        <v>3.50772</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="51" t="n">
+        <v>0.00590666666666667</v>
+      </c>
+      <c r="N31" s="51" t="n">
+        <v>0.00534</v>
+      </c>
+      <c r="O31" s="51" t="n">
+        <v>0.00453333333333333</v>
+      </c>
+      <c r="Q31" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="54" t="n">
+        <v>922.837333333333</v>
+      </c>
+      <c r="S31" s="54" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="T31" s="54" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="V31" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" s="54" t="n">
+        <v>473.402</v>
+      </c>
+      <c r="X31" s="54" t="n">
+        <v>372.964666666667</v>
+      </c>
+      <c r="Y31" s="54" t="n">
+        <v>345.986666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="I34" activeCellId="0" pane="topLeft" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1960784313725"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="1">
+      <c r="C1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" s="56" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="57" t="n">
+        <v>12.8366666666667</v>
+      </c>
+      <c r="D3" s="58" t="n">
+        <v>63.3933333333333</v>
+      </c>
+      <c r="E3" s="59" t="n">
+        <v>888.473333333333</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>50.3966666666667</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>252.196666666667</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <v>3532.60666666667</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="L3" s="7" t="n">
+        <v>50.3966666666667</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>392.333333333333</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>6871.33333333333</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>21.6666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="57" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D4" s="58" t="n">
+        <v>89.9866666666667</v>
+      </c>
+      <c r="E4" s="59" t="n">
+        <v>928.946666666667</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>63.5633333333333</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>326.813333333333</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <v>3523.69666666667</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="L4" s="15" t="n">
+        <v>252.196666666667</v>
+      </c>
+      <c r="M4" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="16" t="n">
+        <v>397.666666666667</v>
+      </c>
+      <c r="O4" s="16" t="n">
+        <v>65375.6666666667</v>
+      </c>
+      <c r="P4" s="17" t="n">
+        <v>103.666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="57" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D5" s="58" t="n">
+        <v>88.5733333333333</v>
+      </c>
+      <c r="E5" s="59" t="n">
+        <v>934.63</v>
+      </c>
+      <c r="F5" s="34" t="n">
+        <v>64.82</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>329.68</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <v>3552.96666666667</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="L5" s="22" t="n">
+        <v>3532.60666666667</v>
+      </c>
+      <c r="M5" s="22" t="n">
+        <v>1.14666666666667</v>
+      </c>
+      <c r="N5" s="23" t="n">
+        <v>397.333333333333</v>
+      </c>
+      <c r="O5" s="23" t="n">
+        <v>911978.666666667</v>
+      </c>
+      <c r="P5" s="24" t="n">
+        <v>1013.66666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="57" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D6" s="58" t="n">
+        <v>17.7233333333333</v>
+      </c>
+      <c r="E6" s="59" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <v>0.0433333333333333</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="L6" s="7" t="n">
+        <v>63.5633333333333</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>309.333333333333</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>49.6666666666667</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="57" t="n">
+        <v>5.49666666666667</v>
+      </c>
+      <c r="D7" s="58" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E7" s="59" t="n">
+        <v>54.2433333333333</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="L7" s="15" t="n">
+        <v>326.813333333333</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>363</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>326</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="57" t="n">
+        <v>5.64333333333333</v>
+      </c>
+      <c r="D8" s="58" t="n">
+        <v>9.89333333333333</v>
+      </c>
+      <c r="E8" s="59" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="L8" s="28" t="n">
+        <v>3523.69666666667</v>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>0.976666666666667</v>
+      </c>
+      <c r="N8" s="29" t="n">
+        <v>379</v>
+      </c>
+      <c r="O8" s="29" t="n">
+        <v>3685.33333333333</v>
+      </c>
+      <c r="P8" s="30" t="n">
+        <v>505.333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="57" t="n">
+        <v>22.4166666666667</v>
+      </c>
+      <c r="D9" s="58" t="n">
+        <v>47.7566666666667</v>
+      </c>
+      <c r="E9" s="59" t="n">
+        <v>416.596666666667</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>25.2966666666667</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>126.026666666667</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1588.08333333333</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="L9" s="34" t="n">
+        <v>64.82</v>
+      </c>
+      <c r="M9" s="34" t="n">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="N9" s="35" t="n">
+        <v>346</v>
+      </c>
+      <c r="O9" s="35" t="n">
+        <v>214.666666666667</v>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>17.6666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="57" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="D10" s="58" t="n">
+        <v>55.7966666666667</v>
+      </c>
+      <c r="E10" s="59" t="n">
+        <v>464.276666666667</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>29.2433333333333</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>152.796666666667</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <v>1747.48666666667</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="L10" s="15" t="n">
+        <v>329.68</v>
+      </c>
+      <c r="M10" s="15" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>371.333333333333</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>1240</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>75.6666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="57" t="n">
+        <v>22.7933333333333</v>
+      </c>
+      <c r="D11" s="58" t="n">
+        <v>57.1233333333333</v>
+      </c>
+      <c r="E11" s="59" t="n">
+        <v>464.796666666667</v>
+      </c>
+      <c r="F11" s="34" t="n">
+        <v>30.0033333333333</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>150.48</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <v>1753.86</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="L11" s="28" t="n">
+        <v>3552.96666666667</v>
+      </c>
+      <c r="M11" s="28" t="n">
+        <v>0.763333333333333</v>
+      </c>
+      <c r="N11" s="29" t="n">
+        <v>379.666666666667</v>
+      </c>
+      <c r="O11" s="29" t="n">
+        <v>13501.3333333333</v>
+      </c>
+      <c r="P11" s="30" t="n">
+        <v>790.666666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="L12" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.0266666666666667</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>2687</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="L13" s="15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M13" s="15" t="n">
+        <v>0.0566666666666667</v>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16" t="n">
+        <v>114</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>16957</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="27"/>
+      <c r="L14" s="28" t="n">
+        <v>0.0433333333333333</v>
+      </c>
+      <c r="M14" s="28" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29" t="n">
+        <v>544.333333333333</v>
+      </c>
+      <c r="P14" s="30" t="n">
+        <v>163473.666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="L16" s="15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="15" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>12494.3333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="4"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="L17" s="28" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="M17" s="28" t="n">
+        <v>0.0633333333333333</v>
+      </c>
+      <c r="N17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="30" t="n">
+        <v>142976.666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="33"/>
+      <c r="L18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35" t="n">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="P18" s="36" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="4"/>
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="L19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="17" t="n">
+        <v>10052</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="4"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="L20" s="28" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="M20" s="28" t="n">
+        <v>0.0433333333333333</v>
+      </c>
+      <c r="N20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29" t="n">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="P20" s="30" t="n">
+        <v>133495.333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="L21" s="7" t="n">
+        <v>25.2966666666667</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>0.0566666666666667</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>114</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>3656.66666666667</v>
+      </c>
+      <c r="P21" s="9" t="n">
+        <v>4968.66666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="4"/>
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="L22" s="15" t="n">
+        <v>126.026666666667</v>
+      </c>
+      <c r="M22" s="15" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="N22" s="16" t="n">
+        <v>264.333333333333</v>
+      </c>
+      <c r="O22" s="16" t="n">
+        <v>33243.6666666667</v>
+      </c>
+      <c r="P22" s="17" t="n">
+        <v>25253</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="L23" s="22" t="n">
+        <v>1588.08333333333</v>
+      </c>
+      <c r="M23" s="22" t="n">
+        <v>2.95333333333333</v>
+      </c>
+      <c r="N23" s="23" t="n">
+        <v>381.333333333333</v>
+      </c>
+      <c r="O23" s="23" t="n">
+        <v>461418.666666667</v>
+      </c>
+      <c r="P23" s="24" t="n">
+        <v>236701</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="L24" s="7" t="n">
+        <v>29.2433333333333</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>134.333333333333</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>4262.33333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="L25" s="15" t="n">
+        <v>152.796666666667</v>
+      </c>
+      <c r="M25" s="15" t="n">
+        <v>0.243333333333333</v>
+      </c>
+      <c r="N25" s="16" t="n">
+        <v>274.333333333333</v>
+      </c>
+      <c r="O25" s="16" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="P25" s="17" t="n">
+        <v>21424.6666666667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="27"/>
+      <c r="L26" s="28" t="n">
+        <v>1747.48666666667</v>
+      </c>
+      <c r="M26" s="28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N26" s="29" t="n">
+        <v>376.333333333333</v>
+      </c>
+      <c r="O26" s="29" t="n">
+        <v>1732</v>
+      </c>
+      <c r="P26" s="30" t="n">
+        <v>186482.333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="33"/>
+      <c r="L27" s="34" t="n">
+        <v>30.0033333333333</v>
+      </c>
+      <c r="M27" s="34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="35" t="n">
+        <v>131.333333333333</v>
+      </c>
+      <c r="O27" s="35" t="n">
+        <v>122.666666666667</v>
+      </c>
+      <c r="P27" s="36" t="n">
+        <v>4343</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="L28" s="15" t="n">
+        <v>150.48</v>
+      </c>
+      <c r="M28" s="15" t="n">
+        <v>0.186666666666667</v>
+      </c>
+      <c r="N28" s="16" t="n">
+        <v>263</v>
+      </c>
+      <c r="O28" s="16" t="n">
+        <v>1258.33333333333</v>
+      </c>
+      <c r="P28" s="17" t="n">
+        <v>21701</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="4"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="27"/>
+      <c r="L29" s="28" t="n">
+        <v>1753.86</v>
+      </c>
+      <c r="M29" s="28" t="n">
+        <v>2.26666666666667</v>
+      </c>
+      <c r="N29" s="29" t="n">
+        <v>377.333333333333</v>
+      </c>
+      <c r="O29" s="29" t="n">
+        <v>18655</v>
+      </c>
+      <c r="P29" s="30" t="n">
+        <v>172993.333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A29"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>